--- a/tables/DE/DE_rand_1_bin_F_09_Cr_09_pop_50/DE_table2_F2_dim10.xlsx
+++ b/tables/DE/DE_rand_1_bin_F_09_Cr_09_pop_50/DE_table2_F2_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>9450158438.21434</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17534112296.55795</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>14126064331.86134</v>
+        <v>14057903372.56741</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>12796459981.00262</v>
@@ -1011,15 +1002,12 @@
         <v>7190702736.614579</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17513377707.8682</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>11999438897.55741</v>
+        <v>11889160121.35119</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>3379584531.284202</v>
@@ -1172,15 +1160,12 @@
         <v>4664356923.424623</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2262729825.651637</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>3621014792.878912</v>
+        <v>3648180492.223458</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>200</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>425801.95089536</v>
@@ -1333,15 +1318,12 @@
         <v>1141428.58436897</v>
       </c>
       <c r="AZ5" t="n">
-        <v>719882.94615741</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>1065427.05777194</v>
+        <v>1072337.94000423</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>3577.89478067</v>
@@ -1494,15 +1476,12 @@
         <v>6223.23245836</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13907.48643602</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>7414.13466101</v>
+        <v>7284.26762551</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>599</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>971.49088961</v>
@@ -1655,15 +1634,12 @@
         <v>3199.3575262</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3208.42316968</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>1720.1653772</v>
+        <v>1690.40022135</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>799</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>970.48810234</v>
@@ -1816,15 +1792,12 @@
         <v>426.5765223</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1840.84296006</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>835.96249284</v>
+        <v>815.8648835</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>970.48677351</v>
@@ -1977,15 +1950,12 @@
         <v>426.5756594</v>
       </c>
       <c r="AZ9" t="n">
-        <v>900.54297138</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>511.75485129</v>
+        <v>503.97908888</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1199</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>104.50968317</v>
@@ -2138,15 +2108,12 @@
         <v>252.12034044</v>
       </c>
       <c r="AZ10" t="n">
-        <v>900.53069523</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>400.5198821</v>
+        <v>390.51966584</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1399</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>104.50968317</v>
@@ -2299,15 +2266,12 @@
         <v>252.12034044</v>
       </c>
       <c r="AZ11" t="n">
-        <v>900.53067975</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>267.99446501</v>
+        <v>255.34374072</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1598</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>104.50968317</v>
@@ -2460,15 +2424,12 @@
         <v>108.10945961</v>
       </c>
       <c r="AZ12" t="n">
-        <v>900.53067966</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>185.51077447</v>
+        <v>171.21037636</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1798</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>56.65827513</v>
@@ -2621,15 +2582,12 @@
         <v>86.82596031999999</v>
       </c>
       <c r="AZ13" t="n">
-        <v>259.62766727</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>137.41942643</v>
+        <v>134.97526161</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>56.65827513</v>
@@ -2782,10 +2740,7 @@
         <v>86.82596031999999</v>
       </c>
       <c r="AZ14" t="n">
-        <v>257.49674283</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101.32240233</v>
+        <v>98.19891552</v>
       </c>
     </row>
   </sheetData>
